--- a/modelos/OBABOL4471014/OBABOL4471014_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471014/OBABOL4471014_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,99 +473,99 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
       <c r="B2" t="n">
-        <v>189.6885045106113</v>
+        <v>155.7908008011207</v>
       </c>
       <c r="C2" t="n">
-        <v>101.1395039300095</v>
+        <v>63.86354456341001</v>
       </c>
       <c r="D2" t="n">
-        <v>285.2371954959767</v>
+        <v>248.5525897435372</v>
       </c>
       <c r="E2" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44817</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
       <c r="B3" t="n">
-        <v>207.6893606902565</v>
+        <v>187.8454377294426</v>
       </c>
       <c r="C3" t="n">
-        <v>116.2453069364251</v>
+        <v>88.91806842985348</v>
       </c>
       <c r="D3" t="n">
-        <v>308.8258051684465</v>
+        <v>278.1133139259892</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44824</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44838</v>
+        <v>44831</v>
       </c>
       <c r="B4" t="n">
-        <v>205.8396658482</v>
+        <v>204.8600252696869</v>
       </c>
       <c r="C4" t="n">
-        <v>116.0896561352871</v>
+        <v>108.811265598855</v>
       </c>
       <c r="D4" t="n">
-        <v>298.2537730842918</v>
+        <v>295.9736100564756</v>
       </c>
       <c r="E4" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44831</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44848</v>
+        <v>44838</v>
       </c>
       <c r="B5" t="n">
-        <v>134.5913924579666</v>
+        <v>197.6204997200192</v>
       </c>
       <c r="C5" t="n">
-        <v>43.97107840148073</v>
+        <v>111.0427088547471</v>
       </c>
       <c r="D5" t="n">
-        <v>233.4145949721649</v>
+        <v>284.560532950222</v>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44852</v>
+        <v>44848</v>
       </c>
       <c r="B6" t="n">
-        <v>162.5385341400257</v>
+        <v>128.0261632796153</v>
       </c>
       <c r="C6" t="n">
-        <v>76.1677932826388</v>
+        <v>38.08251056645695</v>
       </c>
       <c r="D6" t="n">
-        <v>257.4446007562406</v>
+        <v>219.8273566557966</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>44845</v>
@@ -573,79 +573,79 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
       <c r="B7" t="n">
-        <v>125.968549446075</v>
+        <v>148.0009511324437</v>
       </c>
       <c r="C7" t="n">
-        <v>24.01923988219754</v>
+        <v>58.62291585353387</v>
       </c>
       <c r="D7" t="n">
-        <v>215.5417627243279</v>
+        <v>245.4516419093528</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44852</v>
+        <v>44845</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44865</v>
+        <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>81.15057385278405</v>
+        <v>124.7246699579538</v>
       </c>
       <c r="C8" t="n">
-        <v>-15.02694462315861</v>
+        <v>29.42152764502649</v>
       </c>
       <c r="D8" t="n">
-        <v>176.9151549512784</v>
+        <v>216.0221087477419</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44859</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44869</v>
+        <v>44865</v>
       </c>
       <c r="B9" t="n">
-        <v>78.57837034943624</v>
+        <v>80.30808603073604</v>
       </c>
       <c r="C9" t="n">
-        <v>-15.25550370259702</v>
+        <v>-7.260561124421688</v>
       </c>
       <c r="D9" t="n">
-        <v>172.9956085176788</v>
+        <v>172.0811093579889</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44866</v>
+        <v>44859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="B10" t="n">
-        <v>128.2329736720491</v>
+        <v>85.71360851985031</v>
       </c>
       <c r="C10" t="n">
-        <v>38.35590501279631</v>
+        <v>-8.671681779948443</v>
       </c>
       <c r="D10" t="n">
-        <v>221.8913059459595</v>
+        <v>182.4552317430508</v>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>44866</v>
@@ -653,99 +653,99 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
       <c r="B11" t="n">
-        <v>117.9583542059848</v>
+        <v>126.2108568466885</v>
       </c>
       <c r="C11" t="n">
-        <v>29.51200582099071</v>
+        <v>38.02342147518617</v>
       </c>
       <c r="D11" t="n">
-        <v>211.3410843565119</v>
+        <v>220.6739454471993</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44873</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
       <c r="B12" t="n">
-        <v>105.4813397997614</v>
+        <v>120.0874061898452</v>
       </c>
       <c r="C12" t="n">
-        <v>10.47833754820243</v>
+        <v>22.61557113931904</v>
       </c>
       <c r="D12" t="n">
-        <v>190.6697116577482</v>
+        <v>211.3950056954294</v>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44880</v>
+        <v>44873</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
       <c r="B13" t="n">
-        <v>88.35843080935648</v>
+        <v>109.4561390740659</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.606450937357113</v>
+        <v>15.90535772883142</v>
       </c>
       <c r="D13" t="n">
-        <v>177.6625247641745</v>
+        <v>210.6197283833075</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44887</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B14" t="n">
-        <v>30.40328317003533</v>
+        <v>96.79491453360951</v>
       </c>
       <c r="C14" t="n">
-        <v>-63.72060483463334</v>
+        <v>6.875322243415491</v>
       </c>
       <c r="D14" t="n">
-        <v>118.9722323069701</v>
+        <v>183.4842922470885</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B15" t="n">
-        <v>70.71724342359406</v>
+        <v>44.65044699825546</v>
       </c>
       <c r="C15" t="n">
-        <v>-20.05106849386095</v>
+        <v>-45.87585287525493</v>
       </c>
       <c r="D15" t="n">
-        <v>159.7011280026851</v>
+        <v>136.3691058498458</v>
       </c>
       <c r="E15" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>44894</v>
@@ -753,199 +753,199 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B16" t="n">
-        <v>80.10782884090702</v>
+        <v>78.35802339246152</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.29770484900459</v>
+        <v>-7.737414851497574</v>
       </c>
       <c r="D16" t="n">
-        <v>171.7706689725177</v>
+        <v>169.1853327119328</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>72.54639429461896</v>
+        <v>87.62995951538701</v>
       </c>
       <c r="C17" t="n">
-        <v>-24.59468560907964</v>
+        <v>-1.835004886679559</v>
       </c>
       <c r="D17" t="n">
-        <v>167.6376517943569</v>
+        <v>178.2285967699681</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>56.80758625467848</v>
+        <v>76.67980196259148</v>
       </c>
       <c r="C18" t="n">
-        <v>-33.7459266463406</v>
+        <v>-12.31354135361406</v>
       </c>
       <c r="D18" t="n">
-        <v>145.1030750399189</v>
+        <v>173.4171058937674</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
       <c r="B19" t="n">
-        <v>52.33706124652153</v>
+        <v>68.8088191471371</v>
       </c>
       <c r="C19" t="n">
-        <v>-39.45569980368481</v>
+        <v>-20.19636036288272</v>
       </c>
       <c r="D19" t="n">
-        <v>141.5054794935934</v>
+        <v>162.1303767540275</v>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44922</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B20" t="n">
-        <v>69.34074149863582</v>
+        <v>61.4961044308842</v>
       </c>
       <c r="C20" t="n">
-        <v>-22.10791203413302</v>
+        <v>-28.97156890754268</v>
       </c>
       <c r="D20" t="n">
-        <v>157.9679563342926</v>
+        <v>150.9621448190276</v>
       </c>
       <c r="E20" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B21" t="n">
-        <v>110.9849460239647</v>
+        <v>75.34592667084212</v>
       </c>
       <c r="C21" t="n">
-        <v>25.16862668158346</v>
+        <v>-13.61642050984521</v>
       </c>
       <c r="D21" t="n">
-        <v>202.4522387249928</v>
+        <v>162.6925917891874</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B22" t="n">
-        <v>128.6002709682077</v>
+        <v>111.9047130385793</v>
       </c>
       <c r="C22" t="n">
-        <v>39.47982261193999</v>
+        <v>18.72271563863914</v>
       </c>
       <c r="D22" t="n">
-        <v>222.7639304755011</v>
+        <v>194.3464379572325</v>
       </c>
       <c r="E22" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B23" t="n">
-        <v>101.0070581403539</v>
+        <v>125.9576392672483</v>
       </c>
       <c r="C23" t="n">
-        <v>9.683446059494397</v>
+        <v>35.32582308278842</v>
       </c>
       <c r="D23" t="n">
-        <v>190.1397282978144</v>
+        <v>212.8412959031366</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B24" t="n">
-        <v>34.09995378723861</v>
+        <v>109.9496378672046</v>
       </c>
       <c r="C24" t="n">
-        <v>-48.36166314000381</v>
+        <v>22.60452227393995</v>
       </c>
       <c r="D24" t="n">
-        <v>125.4686724692016</v>
+        <v>205.1306299892057</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>58.15924394676458</v>
+        <v>46.07147701516514</v>
       </c>
       <c r="C25" t="n">
-        <v>-35.16233024578857</v>
+        <v>-42.54044722168823</v>
       </c>
       <c r="D25" t="n">
-        <v>142.8342426320436</v>
+        <v>145.137511885488</v>
       </c>
       <c r="E25" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>44957</v>
@@ -953,59 +953,59 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>39.20647539312341</v>
+        <v>69.44513016410228</v>
       </c>
       <c r="C26" t="n">
-        <v>-55.65447156803323</v>
+        <v>-11.74281301648261</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3003791490615</v>
+        <v>155.2050433981742</v>
       </c>
       <c r="E26" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>47.31374535338588</v>
+        <v>45.57985211622832</v>
       </c>
       <c r="C27" t="n">
-        <v>-38.53519054597788</v>
+        <v>-41.71951116031163</v>
       </c>
       <c r="D27" t="n">
-        <v>135.6782268931143</v>
+        <v>132.1299451777238</v>
       </c>
       <c r="E27" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>121.5907536989554</v>
+        <v>215.287609239906</v>
       </c>
       <c r="C28" t="n">
-        <v>36.77166702662159</v>
+        <v>132.4910872190922</v>
       </c>
       <c r="D28" t="n">
-        <v>218.397980786476</v>
+        <v>304.6823161826552</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>44978</v>
@@ -1013,39 +1013,39 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>84.29837222220291</v>
+        <v>120.8153670289598</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.47646978516743</v>
+        <v>28.07308458344813</v>
       </c>
       <c r="D29" t="n">
-        <v>172.5588435255773</v>
+        <v>216.8923902648537</v>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>155.8138349947008</v>
+        <v>96.06315955556725</v>
       </c>
       <c r="C30" t="n">
-        <v>64.00983280119407</v>
+        <v>5.25641773283786</v>
       </c>
       <c r="D30" t="n">
-        <v>244.8345279065471</v>
+        <v>187.7191079498627</v>
       </c>
       <c r="E30" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>44985</v>
@@ -1053,181 +1053,201 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>164.3708632616806</v>
+        <v>172.213766639186</v>
       </c>
       <c r="C31" t="n">
-        <v>72.44688059863657</v>
+        <v>86.27599264550034</v>
       </c>
       <c r="D31" t="n">
-        <v>250.6948353705771</v>
+        <v>263.2712676916223</v>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>146.8844153045975</v>
+        <v>202.3205649688793</v>
       </c>
       <c r="C32" t="n">
-        <v>63.43622606726718</v>
+        <v>115.3713988513692</v>
       </c>
       <c r="D32" t="n">
-        <v>234.5106474822188</v>
+        <v>293.9111902501508</v>
       </c>
       <c r="E32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>117.4712275010512</v>
+        <v>197.50067689896</v>
       </c>
       <c r="C33" t="n">
-        <v>27.43284623087663</v>
+        <v>113.0296958291219</v>
       </c>
       <c r="D33" t="n">
-        <v>210.4455996824975</v>
+        <v>291.3987211664097</v>
       </c>
       <c r="E33" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>103.9220590574625</v>
+        <v>145.5103461557051</v>
       </c>
       <c r="C34" t="n">
-        <v>21.03888156957371</v>
+        <v>60.75341185673666</v>
       </c>
       <c r="D34" t="n">
-        <v>187.3744375560876</v>
+        <v>237.5902286308979</v>
       </c>
       <c r="E34" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>139.2522999870868</v>
+        <v>97.56766050656327</v>
       </c>
       <c r="C35" t="n">
-        <v>49.56100936745028</v>
+        <v>5.433660366159065</v>
       </c>
       <c r="D35" t="n">
-        <v>226.1692772311258</v>
+        <v>187.0823387721175</v>
       </c>
       <c r="E35" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B36" t="n">
-        <v>154.5502410720202</v>
+        <v>105.4809994330265</v>
       </c>
       <c r="C36" t="n">
-        <v>61.36161085362085</v>
+        <v>22.62642547264811</v>
       </c>
       <c r="D36" t="n">
-        <v>239.0989808551319</v>
+        <v>195.1583476806672</v>
       </c>
       <c r="E36" t="n">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B37" t="n">
-        <v>186.9270184847485</v>
+        <v>138.3961169683796</v>
       </c>
       <c r="C37" t="n">
-        <v>96.12594433855161</v>
+        <v>55.37299177572905</v>
       </c>
       <c r="D37" t="n">
-        <v>275.2948348468995</v>
+        <v>222.7635298933685</v>
       </c>
       <c r="E37" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B38" t="n">
-        <v>120.214419172857</v>
+        <v>196.9456146145635</v>
       </c>
       <c r="C38" t="n">
-        <v>29.13000929066854</v>
+        <v>110.2936671002419</v>
       </c>
       <c r="D38" t="n">
-        <v>210.6136910420117</v>
+        <v>284.5880074356324</v>
       </c>
       <c r="E38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B39" t="n">
+        <v>141.0352002618457</v>
+      </c>
+      <c r="C39" t="n">
+        <v>57.27296801890223</v>
+      </c>
+      <c r="D39" t="n">
+        <v>231.482463231222</v>
+      </c>
+      <c r="E39" t="n">
+        <v>110</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B39" t="n">
-        <v>65.54422944258397</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-22.79308437770866</v>
-      </c>
-      <c r="D39" t="n">
-        <v>153.6287433316589</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="B40" t="n">
+        <v>86.40633162207226</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.132024320370603</v>
+      </c>
+      <c r="D40" t="n">
+        <v>184.449522541903</v>
+      </c>
+      <c r="E40" t="n">
         <v>20</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F40" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1297,22 +1317,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4189.510517395805</v>
+        <v>4321.656725733843</v>
       </c>
       <c r="C2" t="n">
-        <v>64.72642827621345</v>
+        <v>65.7393088321884</v>
       </c>
       <c r="D2" t="n">
-        <v>46.67492550849479</v>
+        <v>52.1049710736907</v>
       </c>
       <c r="E2" t="n">
-        <v>4.462097447543843</v>
+        <v>4.856203134176432</v>
       </c>
       <c r="F2" t="n">
-        <v>2.409995378723861</v>
+        <v>3.607147701516515</v>
       </c>
       <c r="G2" t="n">
-        <v>0.968595198011775</v>
+        <v>1.081332129435505</v>
       </c>
       <c r="H2" t="n">
         <v>0.7999999999999999</v>
@@ -1323,22 +1343,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>9199.517290208043</v>
+        <v>10749.54034576816</v>
       </c>
       <c r="C3" t="n">
-        <v>95.91411413451121</v>
+        <v>103.679990093403</v>
       </c>
       <c r="D3" t="n">
-        <v>84.42508609641955</v>
+        <v>91.33898004534905</v>
       </c>
       <c r="E3" t="n">
-        <v>4.014740989018887</v>
+        <v>4.136594582567966</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5201641585017667</v>
+        <v>0.5227720104538636</v>
       </c>
       <c r="G3" t="n">
-        <v>1.046379912069729</v>
+        <v>1.115392739039376</v>
       </c>
       <c r="H3" t="n">
         <v>0.6</v>
@@ -1349,25 +1369,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4121.532419462125</v>
+        <v>4535.315127018097</v>
       </c>
       <c r="C4" t="n">
-        <v>64.19916213987629</v>
+        <v>67.34474832544923</v>
       </c>
       <c r="D4" t="n">
-        <v>55.03272106381473</v>
+        <v>59.3390821508176</v>
       </c>
       <c r="E4" t="n">
-        <v>1.116982026433299</v>
+        <v>1.167189877576568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6114979041241917</v>
+        <v>0.6860047080739939</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6179783921257437</v>
+        <v>0.6361510970403046</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8064516129032254</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBABOL4471014/OBABOL4471014_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471014/OBABOL4471014_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44817</v>
       </c>
       <c r="B2" t="n">
-        <v>155.7908008011207</v>
+        <v>161.1849060178866</v>
       </c>
       <c r="C2" t="n">
-        <v>63.86354456341001</v>
+        <v>63.98388622485648</v>
       </c>
       <c r="D2" t="n">
-        <v>248.5525897435372</v>
+        <v>251.8020482868179</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -496,13 +496,13 @@
         <v>44824</v>
       </c>
       <c r="B3" t="n">
-        <v>187.8454377294426</v>
+        <v>187.621230231017</v>
       </c>
       <c r="C3" t="n">
-        <v>88.91806842985348</v>
+        <v>87.95380842062561</v>
       </c>
       <c r="D3" t="n">
-        <v>278.1133139259892</v>
+        <v>287.1741031732592</v>
       </c>
       <c r="E3" t="n">
         <v>190</v>
@@ -516,13 +516,13 @@
         <v>44831</v>
       </c>
       <c r="B4" t="n">
-        <v>204.8600252696869</v>
+        <v>203.1361645874006</v>
       </c>
       <c r="C4" t="n">
-        <v>108.811265598855</v>
+        <v>110.6557030436424</v>
       </c>
       <c r="D4" t="n">
-        <v>295.9736100564756</v>
+        <v>298.1774500944677</v>
       </c>
       <c r="E4" t="n">
         <v>130</v>
@@ -536,13 +536,13 @@
         <v>44838</v>
       </c>
       <c r="B5" t="n">
-        <v>197.6204997200192</v>
+        <v>196.547625550722</v>
       </c>
       <c r="C5" t="n">
-        <v>111.0427088547471</v>
+        <v>94.47631545148458</v>
       </c>
       <c r="D5" t="n">
-        <v>284.560532950222</v>
+        <v>290.7887457020477</v>
       </c>
       <c r="E5" t="n">
         <v>90</v>
@@ -556,13 +556,13 @@
         <v>44848</v>
       </c>
       <c r="B6" t="n">
-        <v>128.0261632796153</v>
+        <v>132.0639541906401</v>
       </c>
       <c r="C6" t="n">
-        <v>38.08251056645695</v>
+        <v>38.11690063190512</v>
       </c>
       <c r="D6" t="n">
-        <v>219.8273566557966</v>
+        <v>236.442805031004</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -576,13 +576,13 @@
         <v>44852</v>
       </c>
       <c r="B7" t="n">
-        <v>148.0009511324437</v>
+        <v>154.0859838401705</v>
       </c>
       <c r="C7" t="n">
-        <v>58.62291585353387</v>
+        <v>54.36534093279278</v>
       </c>
       <c r="D7" t="n">
-        <v>245.4516419093528</v>
+        <v>251.1277086887591</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -596,13 +596,13 @@
         <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>124.7246699579538</v>
+        <v>123.4364210392668</v>
       </c>
       <c r="C8" t="n">
-        <v>29.42152764502649</v>
+        <v>29.05594623243341</v>
       </c>
       <c r="D8" t="n">
-        <v>216.0221087477419</v>
+        <v>216.4588848027458</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -616,13 +616,13 @@
         <v>44865</v>
       </c>
       <c r="B9" t="n">
-        <v>80.30808603073604</v>
+        <v>72.42066854835781</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.260561124421688</v>
+        <v>-18.34920040525305</v>
       </c>
       <c r="D9" t="n">
-        <v>172.0811093579889</v>
+        <v>166.7814908593098</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -636,13 +636,13 @@
         <v>44869</v>
       </c>
       <c r="B10" t="n">
-        <v>85.71360851985031</v>
+        <v>77.76364496838399</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.671681779948443</v>
+        <v>-14.21287010944113</v>
       </c>
       <c r="D10" t="n">
-        <v>182.4552317430508</v>
+        <v>172.9563451730708</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -656,13 +656,13 @@
         <v>44873</v>
       </c>
       <c r="B11" t="n">
-        <v>126.2108568466885</v>
+        <v>120.2609266520222</v>
       </c>
       <c r="C11" t="n">
-        <v>38.02342147518617</v>
+        <v>34.59906300054529</v>
       </c>
       <c r="D11" t="n">
-        <v>220.6739454471993</v>
+        <v>217.3102951630082</v>
       </c>
       <c r="E11" t="n">
         <v>60</v>
@@ -676,13 +676,13 @@
         <v>44880</v>
       </c>
       <c r="B12" t="n">
-        <v>120.0874061898452</v>
+        <v>112.2540745633883</v>
       </c>
       <c r="C12" t="n">
-        <v>22.61557113931904</v>
+        <v>20.45701791583882</v>
       </c>
       <c r="D12" t="n">
-        <v>211.3950056954294</v>
+        <v>209.0983392628849</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -696,13 +696,13 @@
         <v>44887</v>
       </c>
       <c r="B13" t="n">
-        <v>109.4561390740659</v>
+        <v>99.07353466926335</v>
       </c>
       <c r="C13" t="n">
-        <v>15.90535772883142</v>
+        <v>2.550855251233038</v>
       </c>
       <c r="D13" t="n">
-        <v>210.6197283833075</v>
+        <v>188.3315044710767</v>
       </c>
       <c r="E13" t="n">
         <v>90</v>
@@ -716,13 +716,13 @@
         <v>44894</v>
       </c>
       <c r="B14" t="n">
-        <v>96.79491453360951</v>
+        <v>87.34426521141172</v>
       </c>
       <c r="C14" t="n">
-        <v>6.875322243415491</v>
+        <v>-4.288779140956005</v>
       </c>
       <c r="D14" t="n">
-        <v>183.4842922470885</v>
+        <v>180.672825681162</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -736,13 +736,13 @@
         <v>44897</v>
       </c>
       <c r="B15" t="n">
-        <v>44.65044699825546</v>
+        <v>35.65408272413634</v>
       </c>
       <c r="C15" t="n">
-        <v>-45.87585287525493</v>
+        <v>-54.26778234078649</v>
       </c>
       <c r="D15" t="n">
-        <v>136.3691058498458</v>
+        <v>124.9425682121684</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -756,13 +756,13 @@
         <v>44901</v>
       </c>
       <c r="B16" t="n">
-        <v>78.35802339246152</v>
+        <v>69.49104738017959</v>
       </c>
       <c r="C16" t="n">
-        <v>-7.737414851497574</v>
+        <v>-19.84879460157531</v>
       </c>
       <c r="D16" t="n">
-        <v>169.1853327119328</v>
+        <v>152.1232307608377</v>
       </c>
       <c r="E16" t="n">
         <v>140</v>
@@ -776,13 +776,13 @@
         <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>87.62995951538701</v>
+        <v>77.40017474334883</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.835004886679559</v>
+        <v>-13.04468990321426</v>
       </c>
       <c r="D17" t="n">
-        <v>178.2285967699681</v>
+        <v>172.7011416637238</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
@@ -796,13 +796,13 @@
         <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>76.67980196259148</v>
+        <v>71.59524688420764</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.31354135361406</v>
+        <v>-21.91643336640221</v>
       </c>
       <c r="D18" t="n">
-        <v>173.4171058937674</v>
+        <v>171.1752516432258</v>
       </c>
       <c r="E18" t="n">
         <v>50</v>
@@ -816,13 +816,13 @@
         <v>44922</v>
       </c>
       <c r="B19" t="n">
-        <v>68.8088191471371</v>
+        <v>58.67435018750312</v>
       </c>
       <c r="C19" t="n">
-        <v>-20.19636036288272</v>
+        <v>-35.36883155271902</v>
       </c>
       <c r="D19" t="n">
-        <v>162.1303767540275</v>
+        <v>156.7680671390174</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44929</v>
       </c>
       <c r="B20" t="n">
-        <v>61.4961044308842</v>
+        <v>47.6443317470036</v>
       </c>
       <c r="C20" t="n">
-        <v>-28.97156890754268</v>
+        <v>-44.84369949629103</v>
       </c>
       <c r="D20" t="n">
-        <v>150.9621448190276</v>
+        <v>129.3181807658261</v>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -856,13 +856,13 @@
         <v>44936</v>
       </c>
       <c r="B21" t="n">
-        <v>75.34592667084212</v>
+        <v>64.42676373225629</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.61642050984521</v>
+        <v>-27.27773577957663</v>
       </c>
       <c r="D21" t="n">
-        <v>162.6925917891874</v>
+        <v>157.7796118841769</v>
       </c>
       <c r="E21" t="n">
         <v>160</v>
@@ -876,13 +876,13 @@
         <v>44943</v>
       </c>
       <c r="B22" t="n">
-        <v>111.9047130385793</v>
+        <v>105.8887740198568</v>
       </c>
       <c r="C22" t="n">
-        <v>18.72271563863914</v>
+        <v>17.10438513769933</v>
       </c>
       <c r="D22" t="n">
-        <v>194.3464379572325</v>
+        <v>196.7171429347049</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
@@ -896,13 +896,13 @@
         <v>44950</v>
       </c>
       <c r="B23" t="n">
-        <v>125.9576392672483</v>
+        <v>121.5933919790989</v>
       </c>
       <c r="C23" t="n">
-        <v>35.32582308278842</v>
+        <v>27.09989498865061</v>
       </c>
       <c r="D23" t="n">
-        <v>212.8412959031366</v>
+        <v>215.3980519857793</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -916,13 +916,13 @@
         <v>44957</v>
       </c>
       <c r="B24" t="n">
-        <v>109.9496378672046</v>
+        <v>105.8918082627956</v>
       </c>
       <c r="C24" t="n">
-        <v>22.60452227393995</v>
+        <v>15.61781052237263</v>
       </c>
       <c r="D24" t="n">
-        <v>205.1306299892057</v>
+        <v>197.5751763597768</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -936,13 +936,13 @@
         <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>46.07147701516514</v>
+        <v>41.36346796274972</v>
       </c>
       <c r="C25" t="n">
-        <v>-42.54044722168823</v>
+        <v>-54.5144095929574</v>
       </c>
       <c r="D25" t="n">
-        <v>145.137511885488</v>
+        <v>134.9304762005811</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>69.44513016410228</v>
+        <v>61.41773862575272</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.74281301648261</v>
+        <v>-25.48687022286889</v>
       </c>
       <c r="D26" t="n">
-        <v>155.2050433981742</v>
+        <v>154.8600042255655</v>
       </c>
       <c r="E26" t="n">
         <v>50</v>
@@ -976,13 +976,13 @@
         <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>45.57985211622832</v>
+        <v>32.01492933685813</v>
       </c>
       <c r="C27" t="n">
-        <v>-41.71951116031163</v>
+        <v>-56.30882763995394</v>
       </c>
       <c r="D27" t="n">
-        <v>132.1299451777238</v>
+        <v>118.9794748936168</v>
       </c>
       <c r="E27" t="n">
         <v>110</v>
@@ -996,13 +996,13 @@
         <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>215.287609239906</v>
+        <v>204.5774414380929</v>
       </c>
       <c r="C28" t="n">
-        <v>132.4910872190922</v>
+        <v>106.5918095092195</v>
       </c>
       <c r="D28" t="n">
-        <v>304.6823161826552</v>
+        <v>294.3999839696997</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -1016,13 +1016,13 @@
         <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>120.8153670289598</v>
+        <v>116.3992471167464</v>
       </c>
       <c r="C29" t="n">
-        <v>28.07308458344813</v>
+        <v>21.01640544787985</v>
       </c>
       <c r="D29" t="n">
-        <v>216.8923902648537</v>
+        <v>202.9065843615183</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>96.06315955556725</v>
+        <v>92.35534965434974</v>
       </c>
       <c r="C30" t="n">
-        <v>5.25641773283786</v>
+        <v>2.158050520095912</v>
       </c>
       <c r="D30" t="n">
-        <v>187.7191079498627</v>
+        <v>184.6432232429518</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -1056,13 +1056,13 @@
         <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>172.213766639186</v>
+        <v>170.055563984373</v>
       </c>
       <c r="C31" t="n">
-        <v>86.27599264550034</v>
+        <v>78.46515370541226</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2712676916223</v>
+        <v>257.3463204739341</v>
       </c>
       <c r="E31" t="n">
         <v>50</v>
@@ -1076,13 +1076,13 @@
         <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>202.3205649688793</v>
+        <v>188.2609001655722</v>
       </c>
       <c r="C32" t="n">
-        <v>115.3713988513692</v>
+        <v>95.73484245900606</v>
       </c>
       <c r="D32" t="n">
-        <v>293.9111902501508</v>
+        <v>277.6055900999094</v>
       </c>
       <c r="E32" t="n">
         <v>120</v>
@@ -1096,13 +1096,13 @@
         <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>197.50067689896</v>
+        <v>177.3270953939461</v>
       </c>
       <c r="C33" t="n">
-        <v>113.0296958291219</v>
+        <v>84.7404209381581</v>
       </c>
       <c r="D33" t="n">
-        <v>291.3987211664097</v>
+        <v>264.0320728432784</v>
       </c>
       <c r="E33" t="n">
         <v>110</v>
@@ -1116,13 +1116,13 @@
         <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>145.5103461557051</v>
+        <v>135.1601465409472</v>
       </c>
       <c r="C34" t="n">
-        <v>60.75341185673666</v>
+        <v>45.01257013524074</v>
       </c>
       <c r="D34" t="n">
-        <v>237.5902286308979</v>
+        <v>229.6629320814799</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1136,13 +1136,13 @@
         <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>97.56766050656327</v>
+        <v>112.8625609210342</v>
       </c>
       <c r="C35" t="n">
-        <v>5.433660366159065</v>
+        <v>25.38512979158493</v>
       </c>
       <c r="D35" t="n">
-        <v>187.0823387721175</v>
+        <v>195.5869994575824</v>
       </c>
       <c r="E35" t="n">
         <v>80</v>
@@ -1156,13 +1156,13 @@
         <v>45027</v>
       </c>
       <c r="B36" t="n">
-        <v>105.4809994330265</v>
+        <v>141.4731219940331</v>
       </c>
       <c r="C36" t="n">
-        <v>22.62642547264811</v>
+        <v>52.03689760270478</v>
       </c>
       <c r="D36" t="n">
-        <v>195.1583476806672</v>
+        <v>227.0550348902759</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -1176,13 +1176,13 @@
         <v>45040</v>
       </c>
       <c r="B37" t="n">
-        <v>138.3961169683796</v>
+        <v>168.8416162153241</v>
       </c>
       <c r="C37" t="n">
-        <v>55.37299177572905</v>
+        <v>80.11666652734269</v>
       </c>
       <c r="D37" t="n">
-        <v>222.7635298933685</v>
+        <v>264.7950669585476</v>
       </c>
       <c r="E37" t="n">
         <v>290</v>
@@ -1196,13 +1196,13 @@
         <v>45048</v>
       </c>
       <c r="B38" t="n">
-        <v>196.9456146145635</v>
+        <v>206.2085751736017</v>
       </c>
       <c r="C38" t="n">
-        <v>110.2936671002419</v>
+        <v>117.9797970332679</v>
       </c>
       <c r="D38" t="n">
-        <v>284.5880074356324</v>
+        <v>298.8367349303313</v>
       </c>
       <c r="E38" t="n">
         <v>100</v>
@@ -1216,13 +1216,13 @@
         <v>45055</v>
       </c>
       <c r="B39" t="n">
-        <v>141.0352002618457</v>
+        <v>118.8676829336742</v>
       </c>
       <c r="C39" t="n">
-        <v>57.27296801890223</v>
+        <v>25.58994119368443</v>
       </c>
       <c r="D39" t="n">
-        <v>231.482463231222</v>
+        <v>219.5786848604321</v>
       </c>
       <c r="E39" t="n">
         <v>110</v>
@@ -1236,13 +1236,13 @@
         <v>45062</v>
       </c>
       <c r="B40" t="n">
-        <v>86.40633162207226</v>
+        <v>55.19891983615673</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.132024320370603</v>
+        <v>-37.68126343984482</v>
       </c>
       <c r="D40" t="n">
-        <v>184.449522541903</v>
+        <v>148.1802412836329</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1317,22 +1317,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4321.656725733843</v>
+        <v>4145.157118526931</v>
       </c>
       <c r="C2" t="n">
-        <v>65.7393088321884</v>
+        <v>64.38289461127802</v>
       </c>
       <c r="D2" t="n">
-        <v>52.1049710736907</v>
+        <v>47.84009990005197</v>
       </c>
       <c r="E2" t="n">
-        <v>4.856203134176432</v>
+        <v>4.58559628001984</v>
       </c>
       <c r="F2" t="n">
-        <v>3.607147701516515</v>
+        <v>3.136346796274972</v>
       </c>
       <c r="G2" t="n">
-        <v>1.081332129435505</v>
+        <v>1.014457059890779</v>
       </c>
       <c r="H2" t="n">
         <v>0.7999999999999999</v>
@@ -1343,22 +1343,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>10749.54034576816</v>
+        <v>7573.616980621894</v>
       </c>
       <c r="C3" t="n">
-        <v>103.679990093403</v>
+        <v>87.02653032622807</v>
       </c>
       <c r="D3" t="n">
-        <v>91.33898004534905</v>
+        <v>77.13971741102854</v>
       </c>
       <c r="E3" t="n">
-        <v>4.136594582567966</v>
+        <v>3.748483555049201</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5227720104538636</v>
+        <v>0.4177875302919857</v>
       </c>
       <c r="G3" t="n">
-        <v>1.115392739039376</v>
+        <v>1.019082456535692</v>
       </c>
       <c r="H3" t="n">
         <v>0.6</v>
@@ -1369,22 +1369,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4535.315127018097</v>
+        <v>4418.530632057712</v>
       </c>
       <c r="C4" t="n">
-        <v>67.34474832544923</v>
+        <v>66.47202894494579</v>
       </c>
       <c r="D4" t="n">
-        <v>59.3390821508176</v>
+        <v>56.71068020745459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.167189877576568</v>
+        <v>1.109143848080555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6860047080739939</v>
+        <v>0.5973327266733982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6361510970403046</v>
+        <v>0.6201523796782252</v>
       </c>
       <c r="H4" t="n">
         <v>0.8064516129032254</v>

--- a/modelos/OBABOL4471014/OBABOL4471014_Sell in_metricas.xlsx
+++ b/modelos/OBABOL4471014/OBABOL4471014_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44817</v>
       </c>
       <c r="B2" t="n">
-        <v>161.1849060178866</v>
+        <v>160.2790045942261</v>
       </c>
       <c r="C2" t="n">
-        <v>63.98388622485648</v>
+        <v>62.27178428296728</v>
       </c>
       <c r="D2" t="n">
-        <v>251.8020482868179</v>
+        <v>261.2607552665319</v>
       </c>
       <c r="E2" t="n">
         <v>200</v>
@@ -496,13 +496,13 @@
         <v>44824</v>
       </c>
       <c r="B3" t="n">
-        <v>187.621230231017</v>
+        <v>190.0938594038076</v>
       </c>
       <c r="C3" t="n">
-        <v>87.95380842062561</v>
+        <v>91.33104870057744</v>
       </c>
       <c r="D3" t="n">
-        <v>287.1741031732592</v>
+        <v>287.0829866709642</v>
       </c>
       <c r="E3" t="n">
         <v>190</v>
@@ -516,13 +516,13 @@
         <v>44831</v>
       </c>
       <c r="B4" t="n">
-        <v>203.1361645874006</v>
+        <v>204.9385363275892</v>
       </c>
       <c r="C4" t="n">
-        <v>110.6557030436424</v>
+        <v>109.2231099857185</v>
       </c>
       <c r="D4" t="n">
-        <v>298.1774500944677</v>
+        <v>307.0430824031321</v>
       </c>
       <c r="E4" t="n">
         <v>130</v>
@@ -536,13 +536,13 @@
         <v>44838</v>
       </c>
       <c r="B5" t="n">
-        <v>196.547625550722</v>
+        <v>192.8089634075655</v>
       </c>
       <c r="C5" t="n">
-        <v>94.47631545148458</v>
+        <v>100.1656183494957</v>
       </c>
       <c r="D5" t="n">
-        <v>290.7887457020477</v>
+        <v>297.398766478974</v>
       </c>
       <c r="E5" t="n">
         <v>90</v>
@@ -556,13 +556,13 @@
         <v>44848</v>
       </c>
       <c r="B6" t="n">
-        <v>132.0639541906401</v>
+        <v>128.3634583254988</v>
       </c>
       <c r="C6" t="n">
-        <v>38.11690063190512</v>
+        <v>28.49058237633134</v>
       </c>
       <c r="D6" t="n">
-        <v>236.442805031004</v>
+        <v>224.3412351095923</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -576,13 +576,13 @@
         <v>44852</v>
       </c>
       <c r="B7" t="n">
-        <v>154.0859838401705</v>
+        <v>152.7022418165437</v>
       </c>
       <c r="C7" t="n">
-        <v>54.36534093279278</v>
+        <v>59.15864865489549</v>
       </c>
       <c r="D7" t="n">
-        <v>251.1277086887591</v>
+        <v>249.3439566758771</v>
       </c>
       <c r="E7" t="n">
         <v>100</v>
@@ -596,13 +596,13 @@
         <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>123.4364210392668</v>
+        <v>122.2458164365615</v>
       </c>
       <c r="C8" t="n">
-        <v>29.05594623243341</v>
+        <v>23.37254217917411</v>
       </c>
       <c r="D8" t="n">
-        <v>216.4588848027458</v>
+        <v>216.9773234935174</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -616,13 +616,13 @@
         <v>44865</v>
       </c>
       <c r="B9" t="n">
-        <v>72.42066854835781</v>
+        <v>79.95386558475229</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.34920040525305</v>
+        <v>-16.07898281444744</v>
       </c>
       <c r="D9" t="n">
-        <v>166.7814908593098</v>
+        <v>167.4263259253271</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -636,13 +636,13 @@
         <v>44869</v>
       </c>
       <c r="B10" t="n">
-        <v>77.76364496838399</v>
+        <v>79.93681628244826</v>
       </c>
       <c r="C10" t="n">
-        <v>-14.21287010944113</v>
+        <v>-19.23509152026567</v>
       </c>
       <c r="D10" t="n">
-        <v>172.9563451730708</v>
+        <v>178.7292745927497</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -656,13 +656,13 @@
         <v>44873</v>
       </c>
       <c r="B11" t="n">
-        <v>120.2609266520222</v>
+        <v>120.908389543837</v>
       </c>
       <c r="C11" t="n">
-        <v>34.59906300054529</v>
+        <v>22.57204859167032</v>
       </c>
       <c r="D11" t="n">
-        <v>217.3102951630082</v>
+        <v>208.8519546856681</v>
       </c>
       <c r="E11" t="n">
         <v>60</v>
@@ -676,13 +676,13 @@
         <v>44880</v>
       </c>
       <c r="B12" t="n">
-        <v>112.2540745633883</v>
+        <v>115.9690522266051</v>
       </c>
       <c r="C12" t="n">
-        <v>20.45701791583882</v>
+        <v>25.4367971304689</v>
       </c>
       <c r="D12" t="n">
-        <v>209.0983392628849</v>
+        <v>213.7443705790556</v>
       </c>
       <c r="E12" t="n">
         <v>50</v>
@@ -696,13 +696,13 @@
         <v>44887</v>
       </c>
       <c r="B13" t="n">
-        <v>99.07353466926335</v>
+        <v>101.9870675797792</v>
       </c>
       <c r="C13" t="n">
-        <v>2.550855251233038</v>
+        <v>6.915063809358107</v>
       </c>
       <c r="D13" t="n">
-        <v>188.3315044710767</v>
+        <v>197.0704841779298</v>
       </c>
       <c r="E13" t="n">
         <v>90</v>
@@ -716,13 +716,13 @@
         <v>44894</v>
       </c>
       <c r="B14" t="n">
-        <v>87.34426521141172</v>
+        <v>91.35383337726256</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.288779140956005</v>
+        <v>-1.244093702289827</v>
       </c>
       <c r="D14" t="n">
-        <v>180.672825681162</v>
+        <v>187.8092180403878</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -736,13 +736,13 @@
         <v>44897</v>
       </c>
       <c r="B15" t="n">
-        <v>35.65408272413634</v>
+        <v>36.69093062549693</v>
       </c>
       <c r="C15" t="n">
-        <v>-54.26778234078649</v>
+        <v>-57.57618786664749</v>
       </c>
       <c r="D15" t="n">
-        <v>124.9425682121684</v>
+        <v>130.6454067504171</v>
       </c>
       <c r="E15" t="n">
         <v>20</v>
@@ -756,13 +756,13 @@
         <v>44901</v>
       </c>
       <c r="B16" t="n">
-        <v>69.49104738017959</v>
+        <v>67.49624121384998</v>
       </c>
       <c r="C16" t="n">
-        <v>-19.84879460157531</v>
+        <v>-22.01547743483509</v>
       </c>
       <c r="D16" t="n">
-        <v>152.1232307608377</v>
+        <v>163.3033387542277</v>
       </c>
       <c r="E16" t="n">
         <v>140</v>
@@ -776,13 +776,13 @@
         <v>44908</v>
       </c>
       <c r="B17" t="n">
-        <v>77.40017474334883</v>
+        <v>70.80686728739391</v>
       </c>
       <c r="C17" t="n">
-        <v>-13.04468990321426</v>
+        <v>-16.8624921709226</v>
       </c>
       <c r="D17" t="n">
-        <v>172.7011416637238</v>
+        <v>164.4029326247738</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
@@ -796,13 +796,13 @@
         <v>44915</v>
       </c>
       <c r="B18" t="n">
-        <v>71.59524688420764</v>
+        <v>68.95294392596932</v>
       </c>
       <c r="C18" t="n">
-        <v>-21.91643336640221</v>
+        <v>-30.3412152798348</v>
       </c>
       <c r="D18" t="n">
-        <v>171.1752516432258</v>
+        <v>158.0134061324746</v>
       </c>
       <c r="E18" t="n">
         <v>50</v>
@@ -816,13 +816,13 @@
         <v>44922</v>
       </c>
       <c r="B19" t="n">
-        <v>58.67435018750312</v>
+        <v>59.3892460842588</v>
       </c>
       <c r="C19" t="n">
-        <v>-35.36883155271902</v>
+        <v>-33.2826773823058</v>
       </c>
       <c r="D19" t="n">
-        <v>156.7680671390174</v>
+        <v>145.7780619392467</v>
       </c>
       <c r="E19" t="n">
         <v>40</v>
@@ -836,13 +836,13 @@
         <v>44929</v>
       </c>
       <c r="B20" t="n">
-        <v>47.6443317470036</v>
+        <v>48.36586402611664</v>
       </c>
       <c r="C20" t="n">
-        <v>-44.84369949629103</v>
+        <v>-40.76272287996831</v>
       </c>
       <c r="D20" t="n">
-        <v>129.3181807658261</v>
+        <v>133.3336946890542</v>
       </c>
       <c r="E20" t="n">
         <v>80</v>
@@ -856,13 +856,13 @@
         <v>44936</v>
       </c>
       <c r="B21" t="n">
-        <v>64.42676373225629</v>
+        <v>64.37242130251347</v>
       </c>
       <c r="C21" t="n">
-        <v>-27.27773577957663</v>
+        <v>-27.41323131272475</v>
       </c>
       <c r="D21" t="n">
-        <v>157.7796118841769</v>
+        <v>154.9509705605258</v>
       </c>
       <c r="E21" t="n">
         <v>160</v>
@@ -876,13 +876,13 @@
         <v>44943</v>
       </c>
       <c r="B22" t="n">
-        <v>105.8887740198568</v>
+        <v>103.4356768091942</v>
       </c>
       <c r="C22" t="n">
-        <v>17.10438513769933</v>
+        <v>3.156130854752312</v>
       </c>
       <c r="D22" t="n">
-        <v>196.7171429347049</v>
+        <v>196.6460530541801</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
@@ -896,13 +896,13 @@
         <v>44950</v>
       </c>
       <c r="B23" t="n">
-        <v>121.5933919790989</v>
+        <v>117.1514605557365</v>
       </c>
       <c r="C23" t="n">
-        <v>27.09989498865061</v>
+        <v>24.42885324724687</v>
       </c>
       <c r="D23" t="n">
-        <v>215.3980519857793</v>
+        <v>207.4364101291338</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -916,13 +916,13 @@
         <v>44957</v>
       </c>
       <c r="B24" t="n">
-        <v>105.8918082627956</v>
+        <v>109.2989284959572</v>
       </c>
       <c r="C24" t="n">
-        <v>15.61781052237263</v>
+        <v>17.72152865998376</v>
       </c>
       <c r="D24" t="n">
-        <v>197.5751763597768</v>
+        <v>204.9138999064433</v>
       </c>
       <c r="E24" t="n">
         <v>30</v>
@@ -936,13 +936,13 @@
         <v>44960</v>
       </c>
       <c r="B25" t="n">
-        <v>41.36346796274972</v>
+        <v>40.80101964274238</v>
       </c>
       <c r="C25" t="n">
-        <v>-54.5144095929574</v>
+        <v>-50.0428902121984</v>
       </c>
       <c r="D25" t="n">
-        <v>134.9304762005811</v>
+        <v>132.0815077989448</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -956,13 +956,13 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>61.41773862575272</v>
+        <v>62.033621173108</v>
       </c>
       <c r="C26" t="n">
-        <v>-25.48687022286889</v>
+        <v>-25.19220465739654</v>
       </c>
       <c r="D26" t="n">
-        <v>154.8600042255655</v>
+        <v>153.5871549811519</v>
       </c>
       <c r="E26" t="n">
         <v>50</v>
@@ -976,13 +976,13 @@
         <v>44971</v>
       </c>
       <c r="B27" t="n">
-        <v>32.01492933685813</v>
+        <v>31.76154276795721</v>
       </c>
       <c r="C27" t="n">
-        <v>-56.30882763995394</v>
+        <v>-59.15210891254102</v>
       </c>
       <c r="D27" t="n">
-        <v>118.9794748936168</v>
+        <v>123.5355799706594</v>
       </c>
       <c r="E27" t="n">
         <v>110</v>
@@ -996,13 +996,13 @@
         <v>44980</v>
       </c>
       <c r="B28" t="n">
-        <v>204.5774414380929</v>
+        <v>208.031903025525</v>
       </c>
       <c r="C28" t="n">
-        <v>106.5918095092195</v>
+        <v>114.8715271700682</v>
       </c>
       <c r="D28" t="n">
-        <v>294.3999839696997</v>
+        <v>293.3018106283589</v>
       </c>
       <c r="E28" t="n">
         <v>60</v>
@@ -1016,13 +1016,13 @@
         <v>44985</v>
       </c>
       <c r="B29" t="n">
-        <v>116.3992471167464</v>
+        <v>114.1607001319966</v>
       </c>
       <c r="C29" t="n">
-        <v>21.01640544787985</v>
+        <v>22.30676543001712</v>
       </c>
       <c r="D29" t="n">
-        <v>202.9065843615183</v>
+        <v>211.1531949262806</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -1036,13 +1036,13 @@
         <v>44988</v>
       </c>
       <c r="B30" t="n">
-        <v>92.35534965434974</v>
+        <v>90.39279120169283</v>
       </c>
       <c r="C30" t="n">
-        <v>2.158050520095912</v>
+        <v>3.990319135007711</v>
       </c>
       <c r="D30" t="n">
-        <v>184.6432232429518</v>
+        <v>181.2945264979258</v>
       </c>
       <c r="E30" t="n">
         <v>90</v>
@@ -1056,13 +1056,13 @@
         <v>44992</v>
       </c>
       <c r="B31" t="n">
-        <v>170.055563984373</v>
+        <v>170.5977697861062</v>
       </c>
       <c r="C31" t="n">
-        <v>78.46515370541226</v>
+        <v>82.63920943615896</v>
       </c>
       <c r="D31" t="n">
-        <v>257.3463204739341</v>
+        <v>253.2699090945124</v>
       </c>
       <c r="E31" t="n">
         <v>50</v>
@@ -1076,13 +1076,13 @@
         <v>44999</v>
       </c>
       <c r="B32" t="n">
-        <v>188.2609001655722</v>
+        <v>196.1550318985704</v>
       </c>
       <c r="C32" t="n">
-        <v>95.73484245900606</v>
+        <v>105.2700486432321</v>
       </c>
       <c r="D32" t="n">
-        <v>277.6055900999094</v>
+        <v>287.0373452772234</v>
       </c>
       <c r="E32" t="n">
         <v>120</v>
@@ -1096,13 +1096,13 @@
         <v>45006</v>
       </c>
       <c r="B33" t="n">
-        <v>177.3270953939461</v>
+        <v>178.4884148339819</v>
       </c>
       <c r="C33" t="n">
-        <v>84.7404209381581</v>
+        <v>90.16754227261302</v>
       </c>
       <c r="D33" t="n">
-        <v>264.0320728432784</v>
+        <v>272.7303161717331</v>
       </c>
       <c r="E33" t="n">
         <v>110</v>
@@ -1116,13 +1116,13 @@
         <v>45013</v>
       </c>
       <c r="B34" t="n">
-        <v>135.1601465409472</v>
+        <v>131.3163749265355</v>
       </c>
       <c r="C34" t="n">
-        <v>45.01257013524074</v>
+        <v>50.80382886470342</v>
       </c>
       <c r="D34" t="n">
-        <v>229.6629320814799</v>
+        <v>223.3802061043091</v>
       </c>
       <c r="E34" t="n">
         <v>30</v>
@@ -1136,13 +1136,13 @@
         <v>45020</v>
       </c>
       <c r="B35" t="n">
-        <v>112.8625609210342</v>
+        <v>100.7120623666122</v>
       </c>
       <c r="C35" t="n">
-        <v>25.38512979158493</v>
+        <v>10.58408511812185</v>
       </c>
       <c r="D35" t="n">
-        <v>195.5869994575824</v>
+        <v>195.9000590331544</v>
       </c>
       <c r="E35" t="n">
         <v>80</v>
@@ -1156,13 +1156,13 @@
         <v>45027</v>
       </c>
       <c r="B36" t="n">
-        <v>141.4731219940331</v>
+        <v>135.2200756368398</v>
       </c>
       <c r="C36" t="n">
-        <v>52.03689760270478</v>
+        <v>47.49335619471133</v>
       </c>
       <c r="D36" t="n">
-        <v>227.0550348902759</v>
+        <v>224.7550133506308</v>
       </c>
       <c r="E36" t="n">
         <v>20</v>
@@ -1176,13 +1176,13 @@
         <v>45040</v>
       </c>
       <c r="B37" t="n">
-        <v>168.8416162153241</v>
+        <v>181.7690863560127</v>
       </c>
       <c r="C37" t="n">
-        <v>80.11666652734269</v>
+        <v>86.4093417883289</v>
       </c>
       <c r="D37" t="n">
-        <v>264.7950669585476</v>
+        <v>276.6247314319657</v>
       </c>
       <c r="E37" t="n">
         <v>290</v>
@@ -1196,13 +1196,13 @@
         <v>45048</v>
       </c>
       <c r="B38" t="n">
-        <v>206.2085751736017</v>
+        <v>214.858871906572</v>
       </c>
       <c r="C38" t="n">
-        <v>117.9797970332679</v>
+        <v>117.8861070358858</v>
       </c>
       <c r="D38" t="n">
-        <v>298.8367349303313</v>
+        <v>309.9734799392247</v>
       </c>
       <c r="E38" t="n">
         <v>100</v>
@@ -1216,13 +1216,13 @@
         <v>45055</v>
       </c>
       <c r="B39" t="n">
-        <v>118.8676829336742</v>
+        <v>122.8928817782377</v>
       </c>
       <c r="C39" t="n">
-        <v>25.58994119368443</v>
+        <v>34.54286643487325</v>
       </c>
       <c r="D39" t="n">
-        <v>219.5786848604321</v>
+        <v>217.3367958588464</v>
       </c>
       <c r="E39" t="n">
         <v>110</v>
@@ -1236,13 +1236,13 @@
         <v>45062</v>
       </c>
       <c r="B40" t="n">
-        <v>55.19891983615673</v>
+        <v>54.20148640178672</v>
       </c>
       <c r="C40" t="n">
-        <v>-37.68126343984482</v>
+        <v>-39.50475586278125</v>
       </c>
       <c r="D40" t="n">
-        <v>148.1802412836329</v>
+        <v>146.492146942528</v>
       </c>
       <c r="E40" t="n">
         <v>20</v>
@@ -1317,22 +1317,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>4145.157118526931</v>
+        <v>4025.702159920578</v>
       </c>
       <c r="C2" t="n">
-        <v>64.38289461127802</v>
+        <v>63.44842125632897</v>
       </c>
       <c r="D2" t="n">
-        <v>47.84009990005197</v>
+        <v>47.23700321557584</v>
       </c>
       <c r="E2" t="n">
-        <v>4.58559628001984</v>
+        <v>4.549808060605854</v>
       </c>
       <c r="F2" t="n">
-        <v>3.136346796274972</v>
+        <v>3.080101964274237</v>
       </c>
       <c r="G2" t="n">
-        <v>1.014457059890779</v>
+        <v>1.014391651230039</v>
       </c>
       <c r="H2" t="n">
         <v>0.7999999999999999</v>
@@ -1343,22 +1343,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7573.616980621894</v>
+        <v>6877.7253794608</v>
       </c>
       <c r="C3" t="n">
-        <v>87.02653032622807</v>
+        <v>82.93205278697013</v>
       </c>
       <c r="D3" t="n">
-        <v>77.13971741102854</v>
+        <v>75.14059414810514</v>
       </c>
       <c r="E3" t="n">
-        <v>3.748483555049201</v>
+        <v>3.972801555376439</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4177875302919857</v>
+        <v>0.373210047048232</v>
       </c>
       <c r="G3" t="n">
-        <v>1.019082456535692</v>
+        <v>1.00951643418049</v>
       </c>
       <c r="H3" t="n">
         <v>0.6</v>
@@ -1369,22 +1369,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4418.530632057712</v>
+        <v>4431.938010959343</v>
       </c>
       <c r="C4" t="n">
-        <v>66.47202894494579</v>
+        <v>66.57280233668509</v>
       </c>
       <c r="D4" t="n">
-        <v>56.71068020745459</v>
+        <v>56.46468065205636</v>
       </c>
       <c r="E4" t="n">
-        <v>1.109143848080555</v>
+        <v>1.09415879439475</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5973327266733982</v>
+        <v>0.6226219530361995</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6201523796782252</v>
+        <v>0.6165100658164313</v>
       </c>
       <c r="H4" t="n">
         <v>0.8064516129032254</v>
